--- a/study2/presentation_for_paper/study2b_residual_normality.xlsx
+++ b/study2/presentation_for_paper/study2b_residual_normality.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="448" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4F17184-73B2-46CC-86FA-1F6AD8921C1F}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28279FBA-A573-4B84-B974-E48682679B8B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9ED74C4E-2FEE-4727-A694-DD6A3E62DAA7}"/>
   </bookViews>
@@ -41,7 +41,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="13">
+  <futureMetadata name="XLRICHVALUE" count="12">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -126,15 +126,8 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="12"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
-  <valueMetadata count="13">
+  <valueMetadata count="12">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -170,16 +163,13 @@
     </bk>
     <bk>
       <rc t="1" v="11"/>
-    </bk>
-    <bk>
-      <rc t="1" v="12"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>OP</t>
     <phoneticPr fontId="1"/>
@@ -226,11 +216,6 @@
   </si>
   <si>
     <t>Overall Attitude Towards AI Agent --&gt; Engagement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[Composite Score Approach]
-Overall Attitude Towards AI Agent --&gt; Engagement</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -238,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,25 +242,26 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -284,54 +270,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -341,39 +286,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,23 +339,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>338666</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>21166</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>579966</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44F9287-34D1-F931-4AD3-B9F28455894D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B6AC47-4410-8FB2-9202-C4575BE57C16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -442,8 +378,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="338666" y="246944"/>
-          <a:ext cx="14168967" cy="9771944"/>
+          <a:off x="1333500" y="2120900"/>
+          <a:ext cx="14281150" cy="8648700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -506,7 +442,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -553,10 +489,6 @@
   </rv>
   <rv s="0">
     <v>11</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>12</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -585,7 +517,6 @@
   <rel r:id="rId10"/>
   <rel r:id="rId11"/>
   <rel r:id="rId12"/>
-  <rel r:id="rId13"/>
 </richValueRels>
 </file>
 
@@ -906,136 +837,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E37A7FF-29BF-4061-BE3E-4B4F80131BE9}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="C2:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="A1:F5"/>
+    <sheetView showGridLines="0" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="I7" sqref="B2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.4140625" defaultRowHeight="113.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.75" style="2" customWidth="1"/>
-    <col min="3" max="6" width="34.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="1" customWidth="1"/>
-    <col min="8" max="15" width="34.08203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="20.4140625" style="1"/>
+    <col min="1" max="1" width="4.4140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.75" style="2" customWidth="1"/>
+    <col min="5" max="8" width="34.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.1640625" style="1" customWidth="1"/>
+    <col min="10" max="17" width="34.08203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="20.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="2" spans="3:8" ht="6.5" customHeight="1"/>
+    <row r="3" spans="3:8" ht="24.5" customHeight="1">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="188.5" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="3:8" ht="215" customHeight="1">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="6" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E2" s="6" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="6" t="e" vm="4">
+      <c r="E4" s="7" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" s="7" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" s="7" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H4" s="7" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="188.5" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="5" spans="3:8" ht="215" customHeight="1">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3" s="6" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E3" s="6" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="6" t="e" vm="8">
+      <c r="E5" s="7" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="7" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G5" s="7" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H5" s="7" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="188.5" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="6" spans="3:8" ht="215" customHeight="1">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="6" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E4" s="6" t="e" vm="11">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" s="6" t="e" vm="12">
+      <c r="E6" s="7" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="7" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="7" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" s="7" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="188.5" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="7" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="8" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="9" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="10" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="11" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="12" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="13" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="14" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="15" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="16" spans="1:6" ht="188.5" customHeight="1"/>
+    <row r="7" spans="3:8" ht="4.5" customHeight="1"/>
+    <row r="8" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="9" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="10" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="11" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="12" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="13" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="14" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="15" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="16" spans="3:8" ht="188.5" customHeight="1"/>
     <row r="17" ht="188.5" customHeight="1"/>
     <row r="18" ht="188.5" customHeight="1"/>
     <row r="19" ht="188.5" customHeight="1"/>
     <row r="20" ht="188.5" customHeight="1"/>
+    <row r="21" ht="188.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C5:F5"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1045,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851638F2-D2E0-4D93-B5E6-D28E3434FF27}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
